--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="570" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="soglia_bassa" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="PLAtEaU FINALE" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="curvetta 37" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="somme per media zona" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Foglio15" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="7" name="PBOFF7" vbProcedure="false">Sheet1!$J$1:$J$1029</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="127">
   <si>
     <t>Test Point = 0.1</t>
   </si>
@@ -389,6 +390,30 @@
   </si>
   <si>
     <t>Tutte più basse di circa 10%</t>
+  </si>
+  <si>
+    <t>misure segnale con oscilloscopio</t>
+  </si>
+  <si>
+    <t>ch3</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>ch5</t>
+  </si>
+  <si>
+    <t>ch4_alti</t>
+  </si>
+  <si>
+    <t>ch4_tripli</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>sigma</t>
   </si>
 </sst>
 </file>
@@ -751,7 +776,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -802,11 +827,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77544007"/>
-        <c:axId val="42618809"/>
+        <c:axId val="8795424"/>
+        <c:axId val="14495629"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77544007"/>
+        <c:axId val="8795424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,11 +847,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42618809"/>
+        <c:crossAx val="14495629"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42618809"/>
+        <c:axId val="14495629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +876,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77544007"/>
+        <c:crossAx val="8795424"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1190,11 +1215,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="47390426"/>
-        <c:axId val="90543100"/>
+        <c:axId val="50503078"/>
+        <c:axId val="54125490"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47390426"/>
+        <c:axId val="50503078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,11 +1256,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90543100"/>
+        <c:crossAx val="54125490"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90543100"/>
+        <c:axId val="54125490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1287,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47390426"/>
+        <c:crossAx val="50503078"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1514,11 +1539,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="57697821"/>
-        <c:axId val="61800223"/>
+        <c:axId val="88178497"/>
+        <c:axId val="48685380"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57697821"/>
+        <c:axId val="88178497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,11 +1580,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61800223"/>
+        <c:crossAx val="48685380"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61800223"/>
+        <c:axId val="48685380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1611,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57697821"/>
+        <c:crossAx val="88178497"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1838,11 +1863,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="56767412"/>
-        <c:axId val="99483784"/>
+        <c:axId val="54055738"/>
+        <c:axId val="56925460"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56767412"/>
+        <c:axId val="54055738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1540"/>
@@ -1880,11 +1905,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99483784"/>
+        <c:crossAx val="56925460"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99483784"/>
+        <c:axId val="56925460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1936,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56767412"/>
+        <c:crossAx val="54055738"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2847,11 +2872,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88790352"/>
-        <c:axId val="87753505"/>
+        <c:axId val="90632893"/>
+        <c:axId val="70621790"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88790352"/>
+        <c:axId val="90632893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,11 +2903,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87753505"/>
+        <c:crossAx val="70621790"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87753505"/>
+        <c:axId val="70621790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2934,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88790352"/>
+        <c:crossAx val="90632893"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4121,11 +4146,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="16248967"/>
-        <c:axId val="51462788"/>
+        <c:axId val="66731822"/>
+        <c:axId val="90347303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16248967"/>
+        <c:axId val="66731822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,11 +4177,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51462788"/>
+        <c:crossAx val="90347303"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51462788"/>
+        <c:axId val="90347303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4208,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16248967"/>
+        <c:crossAx val="66731822"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4531,11 +4556,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="38065905"/>
-        <c:axId val="69060714"/>
+        <c:axId val="10076877"/>
+        <c:axId val="64620532"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38065905"/>
+        <c:axId val="10076877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,11 +4587,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69060714"/>
+        <c:crossAx val="64620532"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69060714"/>
+        <c:axId val="64620532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4593,7 +4618,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38065905"/>
+        <c:crossAx val="10076877"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4941,11 +4966,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94599043"/>
-        <c:axId val="15609912"/>
+        <c:axId val="96354101"/>
+        <c:axId val="18872301"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94599043"/>
+        <c:axId val="96354101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,11 +4997,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15609912"/>
+        <c:crossAx val="18872301"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15609912"/>
+        <c:axId val="18872301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,7 +5028,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94599043"/>
+        <c:crossAx val="96354101"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5351,11 +5376,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64195875"/>
-        <c:axId val="4031796"/>
+        <c:axId val="31632514"/>
+        <c:axId val="79397864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64195875"/>
+        <c:axId val="31632514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1580"/>
@@ -5383,11 +5408,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4031796"/>
+        <c:crossAx val="79397864"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4031796"/>
+        <c:axId val="79397864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,7 +5439,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64195875"/>
+        <c:crossAx val="31632514"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5768,11 +5793,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="4898062"/>
-        <c:axId val="38873700"/>
+        <c:axId val="87806589"/>
+        <c:axId val="5255528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4898062"/>
+        <c:axId val="87806589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,11 +5824,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38873700"/>
+        <c:crossAx val="5255528"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38873700"/>
+        <c:axId val="5255528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5830,7 +5855,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4898062"/>
+        <c:crossAx val="87806589"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6208,11 +6233,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88561115"/>
-        <c:axId val="66561180"/>
+        <c:axId val="49930966"/>
+        <c:axId val="80832055"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88561115"/>
+        <c:axId val="49930966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,11 +6264,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66561180"/>
+        <c:crossAx val="80832055"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66561180"/>
+        <c:axId val="80832055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +6295,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88561115"/>
+        <c:crossAx val="49930966"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6317,7 +6342,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6368,11 +6393,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="9432753"/>
-        <c:axId val="89288149"/>
+        <c:axId val="83043762"/>
+        <c:axId val="68934288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9432753"/>
+        <c:axId val="83043762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6388,11 +6413,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89288149"/>
+        <c:crossAx val="68934288"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89288149"/>
+        <c:axId val="68934288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,7 +6442,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9432753"/>
+        <c:crossAx val="83043762"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -6780,11 +6805,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="11509019"/>
-        <c:axId val="82205880"/>
+        <c:axId val="19311609"/>
+        <c:axId val="52029590"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11509019"/>
+        <c:axId val="19311609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6811,11 +6836,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82205880"/>
+        <c:crossAx val="52029590"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82205880"/>
+        <c:axId val="52029590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,7 +6867,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="11509019"/>
+        <c:crossAx val="19311609"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -7178,11 +7203,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="27893646"/>
-        <c:axId val="24427547"/>
+        <c:axId val="59676965"/>
+        <c:axId val="56156058"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27893646"/>
+        <c:axId val="59676965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7219,11 +7244,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24427547"/>
+        <c:crossAx val="56156058"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24427547"/>
+        <c:axId val="56156058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7250,7 +7275,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27893646"/>
+        <c:crossAx val="59676965"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -7432,11 +7457,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75722735"/>
-        <c:axId val="2756159"/>
+        <c:axId val="20965354"/>
+        <c:axId val="5238165"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75722735"/>
+        <c:axId val="20965354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7473,11 +7498,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2756159"/>
+        <c:crossAx val="5238165"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2756159"/>
+        <c:axId val="5238165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7504,7 +7529,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75722735"/>
+        <c:crossAx val="20965354"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -7726,11 +7751,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55186595"/>
-        <c:axId val="93485781"/>
+        <c:axId val="47467142"/>
+        <c:axId val="92427371"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55186595"/>
+        <c:axId val="47467142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1610"/>
@@ -7768,12 +7793,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93485781"/>
+        <c:crossAx val="92427371"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93485781"/>
+        <c:axId val="92427371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7800,7 +7825,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55186595"/>
+        <c:crossAx val="47467142"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8028,11 +8053,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89636569"/>
-        <c:axId val="4503301"/>
+        <c:axId val="18563617"/>
+        <c:axId val="93242434"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89636569"/>
+        <c:axId val="18563617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8069,11 +8094,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4503301"/>
+        <c:crossAx val="93242434"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4503301"/>
+        <c:axId val="93242434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8100,7 +8125,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89636569"/>
+        <c:crossAx val="18563617"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8316,11 +8341,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71180244"/>
-        <c:axId val="37026995"/>
+        <c:axId val="56731899"/>
+        <c:axId val="21583048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71180244"/>
+        <c:axId val="56731899"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8357,11 +8382,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37026995"/>
+        <c:crossAx val="21583048"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37026995"/>
+        <c:axId val="21583048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8388,7 +8413,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71180244"/>
+        <c:crossAx val="56731899"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -8592,11 +8617,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95046402"/>
-        <c:axId val="28878065"/>
+        <c:axId val="47367924"/>
+        <c:axId val="97426749"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95046402"/>
+        <c:axId val="47367924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8633,11 +8658,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28878065"/>
+        <c:crossAx val="97426749"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28878065"/>
+        <c:axId val="97426749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8664,7 +8689,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95046402"/>
+        <c:crossAx val="47367924"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -9096,11 +9121,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98827219"/>
-        <c:axId val="4330166"/>
+        <c:axId val="70268428"/>
+        <c:axId val="53940014"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98827219"/>
+        <c:axId val="70268428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,11 +9152,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4330166"/>
+        <c:crossAx val="53940014"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4330166"/>
+        <c:axId val="53940014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,7 +9183,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98827219"/>
+        <c:crossAx val="70268428"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -9867,11 +9892,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80878201"/>
-        <c:axId val="87617571"/>
+        <c:axId val="6868561"/>
+        <c:axId val="13417673"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80878201"/>
+        <c:axId val="6868561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9898,11 +9923,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87617571"/>
+        <c:crossAx val="13417673"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87617571"/>
+        <c:axId val="13417673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9929,7 +9954,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80878201"/>
+        <c:crossAx val="6868561"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -10632,11 +10657,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="92083671"/>
-        <c:axId val="97127168"/>
+        <c:axId val="24561804"/>
+        <c:axId val="73600384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92083671"/>
+        <c:axId val="24561804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10663,11 +10688,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97127168"/>
+        <c:crossAx val="73600384"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97127168"/>
+        <c:axId val="73600384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10694,7 +10719,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92083671"/>
+        <c:crossAx val="24561804"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -10741,7 +10766,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -10792,11 +10817,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="22161472"/>
-        <c:axId val="32012967"/>
+        <c:axId val="73623014"/>
+        <c:axId val="70533102"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22161472"/>
+        <c:axId val="73623014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10812,11 +10837,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32012967"/>
+        <c:crossAx val="70533102"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32012967"/>
+        <c:axId val="70533102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10841,7 +10866,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22161472"/>
+        <c:crossAx val="73623014"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -11559,11 +11584,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91596711"/>
-        <c:axId val="82665928"/>
+        <c:axId val="56281328"/>
+        <c:axId val="87155034"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91596711"/>
+        <c:axId val="56281328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11590,11 +11615,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82665928"/>
+        <c:crossAx val="87155034"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82665928"/>
+        <c:axId val="87155034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11621,7 +11646,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91596711"/>
+        <c:crossAx val="56281328"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -12330,11 +12355,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="18704234"/>
-        <c:axId val="86195754"/>
+        <c:axId val="38220916"/>
+        <c:axId val="52635430"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18704234"/>
+        <c:axId val="38220916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12361,11 +12386,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86195754"/>
+        <c:crossAx val="52635430"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86195754"/>
+        <c:axId val="52635430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12392,7 +12417,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18704234"/>
+        <c:crossAx val="38220916"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -13095,11 +13120,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98275840"/>
-        <c:axId val="35416462"/>
+        <c:axId val="6027335"/>
+        <c:axId val="69853430"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98275840"/>
+        <c:axId val="6027335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13126,11 +13151,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35416462"/>
+        <c:crossAx val="69853430"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35416462"/>
+        <c:axId val="69853430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13157,7 +13182,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98275840"/>
+        <c:crossAx val="6027335"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -13854,11 +13879,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="42743902"/>
-        <c:axId val="3173902"/>
+        <c:axId val="32033294"/>
+        <c:axId val="46350277"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42743902"/>
+        <c:axId val="32033294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13885,11 +13910,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3173902"/>
+        <c:crossAx val="46350277"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3173902"/>
+        <c:axId val="46350277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13916,7 +13941,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42743902"/>
+        <c:crossAx val="32033294"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -14067,11 +14092,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="26806514"/>
-        <c:axId val="31305017"/>
+        <c:axId val="27625310"/>
+        <c:axId val="34480612"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26806514"/>
+        <c:axId val="27625310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14098,11 +14123,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31305017"/>
+        <c:crossAx val="34480612"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31305017"/>
+        <c:axId val="34480612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14139,7 +14164,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26806514"/>
+        <c:crossAx val="27625310"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -14524,11 +14549,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="22251434"/>
-        <c:axId val="90831885"/>
+        <c:axId val="27182332"/>
+        <c:axId val="46936919"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22251434"/>
+        <c:axId val="27182332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14555,11 +14580,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90831885"/>
+        <c:crossAx val="46936919"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90831885"/>
+        <c:axId val="46936919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14586,7 +14611,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22251434"/>
+        <c:crossAx val="27182332"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15022,11 +15047,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="66027250"/>
-        <c:axId val="50145080"/>
+        <c:axId val="39026554"/>
+        <c:axId val="39375649"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66027250"/>
+        <c:axId val="39026554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15053,11 +15078,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50145080"/>
+        <c:crossAx val="39375649"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50145080"/>
+        <c:axId val="39375649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15084,7 +15109,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66027250"/>
+        <c:crossAx val="39026554"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15493,11 +15518,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="15259433"/>
-        <c:axId val="41749985"/>
+        <c:axId val="3092977"/>
+        <c:axId val="12508261"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15259433"/>
+        <c:axId val="3092977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15524,11 +15549,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41749985"/>
+        <c:crossAx val="12508261"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41749985"/>
+        <c:axId val="12508261"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15555,7 +15580,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15259433"/>
+        <c:crossAx val="3092977"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -15937,11 +15962,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="5417591"/>
-        <c:axId val="22962380"/>
+        <c:axId val="44613815"/>
+        <c:axId val="3076471"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5417591"/>
+        <c:axId val="44613815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15968,11 +15993,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22962380"/>
+        <c:crossAx val="3076471"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22962380"/>
+        <c:axId val="3076471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15999,7 +16024,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="5417591"/>
+        <c:crossAx val="44613815"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16294,11 +16319,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87752118"/>
-        <c:axId val="95054161"/>
+        <c:axId val="4935632"/>
+        <c:axId val="15693784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87752118"/>
+        <c:axId val="4935632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16325,11 +16350,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95054161"/>
+        <c:crossAx val="15693784"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95054161"/>
+        <c:axId val="15693784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16356,7 +16381,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87752118"/>
+        <c:crossAx val="4935632"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16403,7 +16428,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -16454,11 +16479,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="9146766"/>
-        <c:axId val="72635319"/>
+        <c:axId val="40509114"/>
+        <c:axId val="61539729"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9146766"/>
+        <c:axId val="40509114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16474,11 +16499,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72635319"/>
+        <c:crossAx val="61539729"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72635319"/>
+        <c:axId val="61539729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16503,7 +16528,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9146766"/>
+        <c:crossAx val="40509114"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -16807,11 +16832,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="27465681"/>
-        <c:axId val="58932363"/>
+        <c:axId val="96318905"/>
+        <c:axId val="14183883"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27465681"/>
+        <c:axId val="96318905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16838,11 +16863,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58932363"/>
+        <c:crossAx val="14183883"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58932363"/>
+        <c:axId val="14183883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16869,7 +16894,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27465681"/>
+        <c:crossAx val="96318905"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17146,11 +17171,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="32081156"/>
-        <c:axId val="75028435"/>
+        <c:axId val="37276832"/>
+        <c:axId val="96203181"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32081156"/>
+        <c:axId val="37276832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17177,11 +17202,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75028435"/>
+        <c:crossAx val="96203181"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75028435"/>
+        <c:axId val="96203181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17208,7 +17233,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32081156"/>
+        <c:crossAx val="37276832"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17255,7 +17280,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -17282,11 +17307,11 @@
             </c:numRef>
           </c:xVal>
         </c:ser>
-        <c:axId val="93644765"/>
-        <c:axId val="8816114"/>
+        <c:axId val="2098623"/>
+        <c:axId val="26328557"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93644765"/>
+        <c:axId val="2098623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17302,11 +17327,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8816114"/>
+        <c:crossAx val="26328557"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8816114"/>
+        <c:axId val="26328557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17331,7 +17356,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93644765"/>
+        <c:crossAx val="2098623"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17387,7 +17412,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -17438,11 +17463,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="60402176"/>
-        <c:axId val="41000502"/>
+        <c:axId val="36844449"/>
+        <c:axId val="16419412"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60402176"/>
+        <c:axId val="36844449"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17458,11 +17483,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41000502"/>
+        <c:crossAx val="16419412"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41000502"/>
+        <c:axId val="16419412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17487,7 +17512,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60402176"/>
+        <c:crossAx val="36844449"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -17736,11 +17761,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="22346161"/>
-        <c:axId val="30759047"/>
+        <c:axId val="45561200"/>
+        <c:axId val="38794732"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22346161"/>
+        <c:axId val="45561200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17777,11 +17802,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30759047"/>
+        <c:crossAx val="38794732"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30759047"/>
+        <c:axId val="38794732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17808,7 +17833,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22346161"/>
+        <c:crossAx val="45561200"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -18096,11 +18121,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="17763046"/>
-        <c:axId val="86880410"/>
+        <c:axId val="71462016"/>
+        <c:axId val="13325452"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17763046"/>
+        <c:axId val="71462016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18137,11 +18162,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86880410"/>
+        <c:crossAx val="13325452"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86880410"/>
+        <c:axId val="13325452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18168,7 +18193,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="17763046"/>
+        <c:crossAx val="71462016"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -18397,11 +18422,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96800354"/>
-        <c:axId val="25178111"/>
+        <c:axId val="45775292"/>
+        <c:axId val="11788176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96800354"/>
+        <c:axId val="45775292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18438,11 +18463,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25178111"/>
+        <c:crossAx val="11788176"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25178111"/>
+        <c:axId val="11788176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18469,7 +18494,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="96800354"/>
+        <c:crossAx val="45775292"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -18500,15 +18525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>169200</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18516,8 +18541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1727280" y="3598560"/>
-        <a:ext cx="5757120" cy="3243240"/>
+        <a:off x="1754280" y="3589560"/>
+        <a:ext cx="5756760" cy="3242880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18530,15 +18555,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18546,8 +18571,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1737000" y="7121520"/>
-        <a:ext cx="5757120" cy="3243600"/>
+        <a:off x="1764000" y="7112520"/>
+        <a:ext cx="5756760" cy="3243240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18560,15 +18585,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18576,8 +18601,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1717200" y="10653840"/>
-        <a:ext cx="5757120" cy="3242880"/>
+        <a:off x="1744200" y="10644840"/>
+        <a:ext cx="5756760" cy="3242520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18590,15 +18615,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18606,8 +18631,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1766880" y="14214600"/>
-        <a:ext cx="5757120" cy="3243240"/>
+        <a:off x="1793880" y="14205600"/>
+        <a:ext cx="5756760" cy="3242880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18620,15 +18645,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18636,8 +18661,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1776600" y="17736840"/>
-        <a:ext cx="5757120" cy="3243240"/>
+        <a:off x="1803600" y="17727840"/>
+        <a:ext cx="5756760" cy="3242880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18650,15 +18675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>158400</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>198720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18666,8 +18691,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1756800" y="21240720"/>
-        <a:ext cx="5757120" cy="3243240"/>
+        <a:off x="1783800" y="21231720"/>
+        <a:ext cx="5756760" cy="3242880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18685,15 +18710,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
+      <xdr:colOff>442440</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18701,8 +18726,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23820840" y="7624440"/>
-        <a:ext cx="5574960" cy="2742480"/>
+        <a:off x="23847840" y="7615440"/>
+        <a:ext cx="5574600" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18715,15 +18740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>439920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18731,8 +18756,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23844960" y="4767120"/>
-        <a:ext cx="5574960" cy="2741760"/>
+        <a:off x="23871960" y="4758120"/>
+        <a:ext cx="5574600" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18745,15 +18770,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>439920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18761,8 +18786,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23844960" y="1900800"/>
-        <a:ext cx="5574960" cy="2741040"/>
+        <a:off x="23871960" y="1891800"/>
+        <a:ext cx="5574600" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18775,15 +18800,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18791,8 +18816,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17863200" y="7600680"/>
-        <a:ext cx="5574960" cy="2742480"/>
+        <a:off x="17890200" y="7591680"/>
+        <a:ext cx="5574600" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18804,16 +18829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>749880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>223200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18821,8 +18846,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17886960" y="4767120"/>
-        <a:ext cx="5574960" cy="2741760"/>
+        <a:off x="21340800" y="6596640"/>
+        <a:ext cx="5574600" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18835,15 +18860,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18851,8 +18876,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17863200" y="1852560"/>
-        <a:ext cx="5574960" cy="2741400"/>
+        <a:off x="17890200" y="1843560"/>
+        <a:ext cx="5574600" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18870,15 +18895,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131760</xdr:colOff>
+      <xdr:colOff>158760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>461880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18886,8 +18911,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7758000" y="45000"/>
-        <a:ext cx="5641920" cy="2741760"/>
+        <a:off x="7785000" y="36000"/>
+        <a:ext cx="5641560" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18900,15 +18925,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342000</xdr:colOff>
+      <xdr:colOff>369000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
+      <xdr:colOff>672120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18916,8 +18941,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7205400" y="2893320"/>
-        <a:ext cx="5641920" cy="2741760"/>
+        <a:off x="7232400" y="2884320"/>
+        <a:ext cx="5641560" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18935,15 +18960,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>449640</xdr:colOff>
+      <xdr:colOff>476280</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18951,8 +18976,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="146160" y="8360640"/>
-        <a:ext cx="5641920" cy="2741400"/>
+        <a:off x="173160" y="8351640"/>
+        <a:ext cx="5641560" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18965,15 +18990,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>444960</xdr:colOff>
+      <xdr:colOff>471600</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18981,8 +19006,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="141480" y="11151000"/>
-        <a:ext cx="5641920" cy="2742480"/>
+        <a:off x="168480" y="11142000"/>
+        <a:ext cx="5641560" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18995,15 +19020,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>480960</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19011,8 +19036,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="150840" y="13932720"/>
-        <a:ext cx="5641920" cy="2741400"/>
+        <a:off x="177840" y="13923720"/>
+        <a:ext cx="5641560" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19025,15 +19050,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>512640</xdr:colOff>
+      <xdr:colOff>539640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19041,8 +19066,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5851080" y="8360640"/>
-        <a:ext cx="5794560" cy="2741400"/>
+        <a:off x="5878080" y="8351640"/>
+        <a:ext cx="5794200" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19055,15 +19080,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>511200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>204480</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19071,8 +19096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5822640" y="11131920"/>
-        <a:ext cx="5794560" cy="2742480"/>
+        <a:off x="5849640" y="11122920"/>
+        <a:ext cx="5794200" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19085,15 +19110,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>223560</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19101,8 +19126,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5841720" y="13932720"/>
-        <a:ext cx="5794560" cy="2741400"/>
+        <a:off x="5868720" y="13923720"/>
+        <a:ext cx="5794200" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19120,15 +19145,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>477000</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19136,8 +19161,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="146160" y="8388720"/>
-        <a:ext cx="7167600" cy="2742480"/>
+        <a:off x="173160" y="8379720"/>
+        <a:ext cx="7167240" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19150,15 +19175,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19166,8 +19191,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="141480" y="11180160"/>
-        <a:ext cx="7167600" cy="2741400"/>
+        <a:off x="168480" y="11171160"/>
+        <a:ext cx="7167240" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19180,15 +19205,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>455040</xdr:colOff>
+      <xdr:colOff>481680</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19196,8 +19221,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="150840" y="13960800"/>
-        <a:ext cx="7167600" cy="2742480"/>
+        <a:off x="177840" y="13951800"/>
+        <a:ext cx="7167240" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19210,15 +19235,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>233640</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19226,8 +19251,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7376760" y="8388720"/>
-        <a:ext cx="8082720" cy="2742480"/>
+        <a:off x="7403760" y="8379720"/>
+        <a:ext cx="8082360" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19240,15 +19265,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
+      <xdr:colOff>511920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>205200</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19256,8 +19281,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7348320" y="11161080"/>
-        <a:ext cx="8082720" cy="2741400"/>
+        <a:off x="7375320" y="11152080"/>
+        <a:ext cx="8082360" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19270,15 +19295,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>224280</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19286,8 +19311,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7367400" y="13960800"/>
-        <a:ext cx="8082720" cy="2742480"/>
+        <a:off x="7394400" y="13951800"/>
+        <a:ext cx="8082360" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19300,15 +19325,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>206280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>509400</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19316,8 +19341,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20007720" y="9426960"/>
-        <a:ext cx="5641920" cy="2742480"/>
+        <a:off x="20034720" y="9417960"/>
+        <a:ext cx="5641560" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19335,15 +19360,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:colOff>438120</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19351,8 +19376,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="870480" y="19818720"/>
-        <a:ext cx="5641920" cy="2742480"/>
+        <a:off x="897480" y="19809720"/>
+        <a:ext cx="5641560" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19365,15 +19390,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19381,8 +19406,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6518520" y="19818720"/>
-        <a:ext cx="5795280" cy="2742480"/>
+        <a:off x="6545520" y="19809720"/>
+        <a:ext cx="5794920" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19395,15 +19420,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>139680</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>416160</xdr:colOff>
+      <xdr:colOff>442800</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19411,8 +19436,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="875160" y="22552920"/>
-        <a:ext cx="5641920" cy="2741760"/>
+        <a:off x="902160" y="22543920"/>
+        <a:ext cx="5641560" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19425,15 +19450,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19441,8 +19466,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6518520" y="22562640"/>
-        <a:ext cx="5795280" cy="2741760"/>
+        <a:off x="6545520" y="22553640"/>
+        <a:ext cx="5794920" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19455,15 +19480,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>139680</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>416160</xdr:colOff>
+      <xdr:colOff>442800</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19471,8 +19496,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="875160" y="25296120"/>
-        <a:ext cx="5641920" cy="2741400"/>
+        <a:off x="902160" y="25287120"/>
+        <a:ext cx="5641560" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19485,15 +19510,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19501,8 +19526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6518520" y="25286760"/>
-        <a:ext cx="5795280" cy="2741400"/>
+        <a:off x="6545520" y="25277760"/>
+        <a:ext cx="5794920" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19520,15 +19545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>670680</xdr:colOff>
+      <xdr:colOff>697680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4021920</xdr:colOff>
+      <xdr:colOff>4048560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19536,8 +19561,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3720960" y="779040"/>
-        <a:ext cx="4876560" cy="2741400"/>
+        <a:off x="3747960" y="770040"/>
+        <a:ext cx="4876200" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19555,15 +19580,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>569520</xdr:colOff>
+      <xdr:colOff>596160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19571,8 +19596,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12467880" y="106920"/>
-        <a:ext cx="5641920" cy="2723760"/>
+        <a:off x="12494880" y="97920"/>
+        <a:ext cx="5641560" cy="2723400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19585,15 +19610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>274680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>577800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19601,8 +19626,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12449520" y="2916720"/>
-        <a:ext cx="5641920" cy="2726640"/>
+        <a:off x="12476520" y="2907720"/>
+        <a:ext cx="5641560" cy="2726280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19615,15 +19640,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>252360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>644760</xdr:colOff>
+      <xdr:colOff>671400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19631,8 +19656,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13190040" y="5756040"/>
-        <a:ext cx="3470040" cy="2741040"/>
+        <a:off x="13217040" y="5747040"/>
+        <a:ext cx="3469680" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19645,15 +19670,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>642960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19661,8 +19686,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13041360" y="8564760"/>
-        <a:ext cx="3590280" cy="2742480"/>
+        <a:off x="13068360" y="8555760"/>
+        <a:ext cx="3589920" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19675,15 +19700,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19691,8 +19716,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18835560" y="87840"/>
-        <a:ext cx="3658680" cy="2741760"/>
+        <a:off x="18862560" y="78840"/>
+        <a:ext cx="3658320" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19705,15 +19730,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>641520</xdr:colOff>
+      <xdr:colOff>668520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>423720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19721,8 +19746,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18944640" y="2926080"/>
-        <a:ext cx="3568680" cy="2742480"/>
+        <a:off x="18971640" y="2917080"/>
+        <a:ext cx="3568320" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19735,15 +19760,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>579240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19751,8 +19776,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18855360" y="5765400"/>
-        <a:ext cx="3638880" cy="2741040"/>
+        <a:off x="18882360" y="5756400"/>
+        <a:ext cx="3638520" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19772,7 +19797,7 @@
   </sheetPr>
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K77" activeCellId="0" sqref="K77"/>
     </sheetView>
   </sheetViews>
@@ -20293,7 +20318,7 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -20455,7 +20480,7 @@
   </sheetPr>
   <dimension ref="A2:R74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -21104,7 +21129,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -21882,7 +21907,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -22227,7 +22252,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -22803,6 +22828,409 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>268</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">AVERAGE(A3:A25)</f>
+        <v>178.391304347826</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D18)</f>
+        <v>179.125</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">AVERAGE(G3:G13)</f>
+        <v>189.090909090909</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J17)</f>
+        <v>345.466666666667</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M16)</f>
+        <v>524.571428571429</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">STDEV(A3:A25)</f>
+        <v>26.1251170165884</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">STDEV(D3:D18)</f>
+        <v>31.2044334456927</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">STDEV(G3:G13)</f>
+        <v>27.0756515912528</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">STDEV(J3:J17)</f>
+        <v>53.9865944559608</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">STDEV(M3:M16)</f>
+        <v>46.9332001330111</v>
       </c>
     </row>
   </sheetData>
@@ -22823,7 +23251,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -22849,7 +23277,7 @@
   </sheetPr>
   <dimension ref="A1:BX35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R39" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -23894,7 +24322,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -24340,7 +24768,7 @@
   </sheetPr>
   <dimension ref="A1:BX25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -25077,7 +25505,7 @@
   </sheetPr>
   <dimension ref="A1:CC76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -26927,7 +27355,7 @@
   </sheetPr>
   <dimension ref="A1:AF65534"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -30541,7 +30969,7 @@
   </sheetPr>
   <dimension ref="A1:O1029"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -46060,7 +46488,7 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
